--- a/apps/load_data/2021/03/PLMOVMAE.xlsx
+++ b/apps/load_data/2021/03/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2021\HHY0321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021\HHY0321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BEF5358-4128-4FB5-829B-F4F4CC6E73E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9D1B57-415D-490F-A1BF-2C3BF97F10B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$267</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$267</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11570" uniqueCount="3448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11550" uniqueCount="3445">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7324,9 +7325,6 @@
     <t>0075A         1</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8623,9 +8621,6 @@
     <t>0004A         1</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8930,9 +8925,6 @@
   </si>
   <si>
     <t>0136A         1</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10372,7 +10364,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -11212,10 +11204,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD234" sqref="AC172:AD234"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -43498,12 +43492,7 @@
       <c r="AB172" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>107</v>
       </c>
@@ -43556,16 +43545,16 @@
         <v>21</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BI172" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="BI172" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="BM172" s="1" t="s">
         <v>118</v>
@@ -43580,13 +43569,13 @@
         <v>168</v>
       </c>
       <c r="BR172" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BS172" s="3">
         <v>36225</v>
       </c>
       <c r="BT172" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BU172" s="1" t="s">
         <v>122</v>
@@ -43607,19 +43596,19 @@
         <v>112</v>
       </c>
       <c r="CC172" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CD172" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="CD172" s="1" t="s">
+      <c r="CE172" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CE172" s="1" t="s">
+      <c r="CG172" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="CG172" s="1" t="s">
+      <c r="CH172" s="1" t="s">
         <v>2442</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2443</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>130</v>
@@ -43657,19 +43646,19 @@
         <v>96</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="N173" s="1" t="s">
         <v>2445</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>2446</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P173" s="1" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="Q173" s="3">
         <v>27241</v>
@@ -43698,12 +43687,7 @@
       <c r="AB173" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>107</v>
       </c>
@@ -43750,7 +43734,7 @@
         <v>112</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="BB173" s="1">
         <v>3</v>
@@ -43759,16 +43743,16 @@
         <v>21</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>118</v>
@@ -43780,13 +43764,13 @@
         <v>102</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BS173" s="3">
         <v>36949</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>122</v>
@@ -43810,19 +43794,19 @@
         <v>112</v>
       </c>
       <c r="CC173" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="CD173" s="1" t="s">
         <v>2122</v>
       </c>
       <c r="CE173" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="CG173" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43860,19 +43844,19 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P174" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="Q174" s="3">
         <v>25223</v>
@@ -43901,12 +43885,7 @@
       <c r="AB174" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>107</v>
       </c>
@@ -43953,7 +43932,7 @@
         <v>112</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BB174" s="1">
         <v>3</v>
@@ -43962,16 +43941,16 @@
         <v>21</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>118</v>
@@ -43986,13 +43965,13 @@
         <v>168</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BS174" s="3">
         <v>36825</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>122</v>
@@ -44016,19 +43995,19 @@
         <v>112</v>
       </c>
       <c r="CC174" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="CD174" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="CD174" s="1" t="s">
+      <c r="CE174" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="CE174" s="1" t="s">
+      <c r="CG174" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="CG174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2471</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2472</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -44066,19 +44045,19 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2474</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2475</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P175" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="Q175" s="3">
         <v>27018</v>
@@ -44104,12 +44083,7 @@
       <c r="AA175" s="1">
         <v>0</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>107</v>
       </c>
@@ -44159,7 +44133,7 @@
         <v>112</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="BB175" s="1">
         <v>3</v>
@@ -44168,13 +44142,13 @@
         <v>21</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>118</v>
@@ -44183,7 +44157,7 @@
         <v>106</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>122</v>
@@ -44201,16 +44175,16 @@
         <v>112</v>
       </c>
       <c r="CC175" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="CD175" s="1" t="s">
         <v>1309</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="CG175" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>130</v>
@@ -44251,19 +44225,19 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P176" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="Q176" s="3">
         <v>29037</v>
@@ -44292,12 +44266,7 @@
       <c r="AB176" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>107</v>
       </c>
@@ -44347,7 +44316,7 @@
         <v>112</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BB176" s="1">
         <v>3</v>
@@ -44356,13 +44325,13 @@
         <v>21</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BM176" s="1" t="s">
         <v>118</v>
@@ -44371,7 +44340,7 @@
         <v>106</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>122</v>
@@ -44392,13 +44361,13 @@
         <v>724</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CE176" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="CE176" s="1" t="s">
+      <c r="CG176" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>130</v>
@@ -44439,19 +44408,19 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P177" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="Q177" s="3">
         <v>26647</v>
@@ -44477,12 +44446,7 @@
       <c r="AA177" s="1">
         <v>0</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>107</v>
       </c>
@@ -44532,7 +44496,7 @@
         <v>112</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BB177" s="1">
         <v>3</v>
@@ -44541,13 +44505,13 @@
         <v>21</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="BM177" s="1" t="s">
         <v>118</v>
@@ -44556,7 +44520,7 @@
         <v>106</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>122</v>
@@ -44574,16 +44538,16 @@
         <v>112</v>
       </c>
       <c r="CC177" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="CD177" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="CD177" s="1" t="s">
-        <v>2503</v>
-      </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>130</v>
@@ -44624,19 +44588,19 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P178" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="Q178" s="3">
         <v>25405</v>
@@ -44668,12 +44632,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>107</v>
       </c>
@@ -44720,7 +44679,7 @@
         <v>112</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BB178" s="1">
         <v>3</v>
@@ -44729,16 +44688,16 @@
         <v>21</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="BI178" s="1" t="s">
         <v>2512</v>
-      </c>
-      <c r="BI178" s="1" t="s">
-        <v>2513</v>
       </c>
       <c r="BM178" s="1" t="s">
         <v>118</v>
@@ -44750,13 +44709,13 @@
         <v>119</v>
       </c>
       <c r="BR178" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BS178" s="3">
         <v>35243</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>122</v>
@@ -44774,19 +44733,19 @@
         <v>112</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="CD178" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CD178" s="1" t="s">
+      <c r="CE178" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="CG178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>130</v>
@@ -44824,19 +44783,19 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P179" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="Q179" s="3">
         <v>28845</v>
@@ -44862,12 +44821,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>107</v>
       </c>
@@ -44917,7 +44871,7 @@
         <v>112</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BB179" s="1">
         <v>3</v>
@@ -44926,13 +44880,13 @@
         <v>21</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>832</v>
@@ -44944,7 +44898,7 @@
         <v>106</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>122</v>
@@ -44962,16 +44916,16 @@
         <v>112</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>838</v>
@@ -45012,19 +44966,19 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P180" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="Q180" s="3">
         <v>21425</v>
@@ -45050,12 +45004,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>107</v>
       </c>
@@ -45105,7 +45054,7 @@
         <v>112</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BB180" s="1">
         <v>3</v>
@@ -45114,13 +45063,13 @@
         <v>21</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>1111</v>
@@ -45135,7 +45084,7 @@
         <v>168</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>122</v>
@@ -45153,16 +45102,16 @@
         <v>112</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>1117</v>
@@ -45179,13 +45128,13 @@
         <v>88</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>112</v>
@@ -45197,25 +45146,25 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P181" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="Q181" s="3">
         <v>23286</v>
@@ -45244,12 +45193,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>107</v>
       </c>
@@ -45299,7 +45243,7 @@
         <v>112</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BB181" s="1">
         <v>3</v>
@@ -45308,13 +45252,13 @@
         <v>21</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BM181" s="1" t="s">
         <v>118</v>
@@ -45323,7 +45267,7 @@
         <v>106</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>122</v>
@@ -45344,16 +45288,16 @@
         <v>112</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2560</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>130</v>
@@ -45394,19 +45338,19 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P182" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="Q182" s="3">
         <v>26907</v>
@@ -45432,12 +45376,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2433</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>107</v>
       </c>
@@ -45484,7 +45423,7 @@
         <v>112</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BB182" s="1">
         <v>3</v>
@@ -45493,16 +45432,16 @@
         <v>21</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>118</v>
@@ -45514,13 +45453,13 @@
         <v>119</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BS182" s="3">
         <v>35950</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>122</v>
@@ -45538,19 +45477,19 @@
         <v>112</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>1920</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2572</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2573</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2574</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>130</v>
@@ -45588,19 +45527,19 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2576</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P183" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="Q183" s="3">
         <v>28642</v>
@@ -45678,7 +45617,7 @@
         <v>112</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="BB183" s="1">
         <v>3</v>
@@ -45687,13 +45626,13 @@
         <v>21</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>118</v>
@@ -45705,7 +45644,7 @@
         <v>168</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>122</v>
@@ -45723,16 +45662,16 @@
         <v>112</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>444</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2584</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2585</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>130</v>
@@ -45773,19 +45712,19 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2585</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P184" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="Q184" s="3">
         <v>28239</v>
@@ -45857,7 +45796,7 @@
         <v>112</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BB184" s="1">
         <v>3</v>
@@ -45866,13 +45805,13 @@
         <v>21</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1968</v>
@@ -45887,13 +45826,13 @@
         <v>238</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BS184" s="3">
         <v>36099</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>122</v>
@@ -45911,16 +45850,16 @@
         <v>112</v>
       </c>
       <c r="CC184" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="CD184" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="CD184" s="1" t="s">
+      <c r="CE184" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CG184" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1974</v>
@@ -45961,19 +45900,19 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P185" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="Q185" s="3">
         <v>25589</v>
@@ -46045,7 +45984,7 @@
         <v>112</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BB185" s="1">
         <v>3</v>
@@ -46054,16 +45993,16 @@
         <v>21</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>118</v>
@@ -46075,13 +46014,13 @@
         <v>102</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="BS185" s="3">
         <v>37735</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>122</v>
@@ -46099,19 +46038,19 @@
         <v>112</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -46149,19 +46088,19 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2613</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P186" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="Q186" s="3">
         <v>29170</v>
@@ -46236,7 +46175,7 @@
         <v>112</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BB186" s="1">
         <v>3</v>
@@ -46245,13 +46184,13 @@
         <v>21</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -46260,7 +46199,7 @@
         <v>106</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -46278,16 +46217,16 @@
         <v>112</v>
       </c>
       <c r="CC186" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="CD186" s="1" t="s">
         <v>934</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CG186" s="1" t="s">
         <v>2623</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2624</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>130</v>
@@ -46310,7 +46249,7 @@
         <v>90</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>112</v>
@@ -46328,19 +46267,19 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2627</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2628</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P187" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="Q187" s="3">
         <v>27250</v>
@@ -46373,7 +46312,7 @@
         <v>107</v>
       </c>
       <c r="AG187" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="AH187" s="1" t="s">
         <v>2039</v>
@@ -46418,7 +46357,7 @@
         <v>112</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BB187" s="1">
         <v>3</v>
@@ -46427,13 +46366,13 @@
         <v>21</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -46442,7 +46381,7 @@
         <v>106</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -46451,7 +46390,7 @@
         <v>0</v>
       </c>
       <c r="BZ187" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="CA187" s="1" t="s">
         <v>124</v>
@@ -46463,13 +46402,13 @@
         <v>1695</v>
       </c>
       <c r="CD187" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="CE187" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>130</v>
@@ -46510,19 +46449,19 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2638</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P188" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="Q188" s="3">
         <v>27999</v>
@@ -46597,7 +46536,7 @@
         <v>112</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BB188" s="1">
         <v>3</v>
@@ -46606,16 +46545,16 @@
         <v>21</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -46627,13 +46566,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BS188" s="3">
         <v>43602</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -46657,13 +46596,13 @@
         <v>1025</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46701,19 +46640,19 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2651</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2654</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P189" s="1" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="Q189" s="3">
         <v>29305</v>
@@ -46788,7 +46727,7 @@
         <v>112</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BB189" s="1">
         <v>3</v>
@@ -46797,13 +46736,13 @@
         <v>21</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>118</v>
@@ -46812,7 +46751,7 @@
         <v>106</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46830,16 +46769,16 @@
         <v>112</v>
       </c>
       <c r="CC189" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="CD189" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="CD189" s="1" t="s">
+      <c r="CE189" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>130</v>
@@ -46880,19 +46819,19 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P190" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="Q190" s="3">
         <v>23125</v>
@@ -46928,7 +46867,7 @@
         <v>42247</v>
       </c>
       <c r="AD190" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="AF190" s="1" t="s">
         <v>107</v>
@@ -46982,16 +46921,16 @@
         <v>21</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
@@ -47003,13 +46942,13 @@
         <v>238</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BS190" s="3">
         <v>36580</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -47030,7 +46969,7 @@
         <v>112</v>
       </c>
       <c r="CC190" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="CD190" s="1" t="s">
         <v>307</v>
@@ -47039,10 +46978,10 @@
         <v>1726</v>
       </c>
       <c r="CG190" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -47080,19 +47019,19 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P191" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="Q191" s="3">
         <v>30023</v>
@@ -47170,13 +47109,13 @@
         <v>21</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>1201</v>
@@ -47191,13 +47130,13 @@
         <v>119</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BS191" s="3">
         <v>37747</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -47221,10 +47160,10 @@
         <v>711</v>
       </c>
       <c r="CE191" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="CG191" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2686</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>1207</v>
@@ -47265,19 +47204,19 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P192" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="Q192" s="3">
         <v>26205</v>
@@ -47358,13 +47297,13 @@
         <v>21</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -47373,7 +47312,7 @@
         <v>106</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -47391,16 +47330,16 @@
         <v>112</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2696</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2697</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>130</v>
@@ -47441,19 +47380,19 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P193" s="1" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="Q193" s="3">
         <v>31662</v>
@@ -47534,16 +47473,16 @@
         <v>21</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -47552,7 +47491,7 @@
         <v>168</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -47570,19 +47509,19 @@
         <v>112</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2706</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="CG193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -47620,19 +47559,19 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P194" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="Q194" s="3">
         <v>29117</v>
@@ -47710,16 +47649,16 @@
         <v>21</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2716</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2717</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -47731,13 +47670,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BS194" s="3">
         <v>37334</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47758,16 +47697,16 @@
         <v>545</v>
       </c>
       <c r="CD194" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CE194" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -47784,7 +47723,7 @@
         <v>152</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>154</v>
@@ -47805,19 +47744,19 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P195" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="Q195" s="3">
         <v>30007</v>
@@ -47895,16 +47834,16 @@
         <v>21</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47916,13 +47855,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BS195" s="3">
         <v>37904</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47931,7 +47870,7 @@
         <v>0</v>
       </c>
       <c r="BZ195" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="CA195" s="1" t="s">
         <v>124</v>
@@ -47943,16 +47882,16 @@
         <v>1025</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2737</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2738</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47972,7 +47911,7 @@
         <v>90</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>112</v>
@@ -47990,19 +47929,19 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2741</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P196" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="Q196" s="3">
         <v>26221</v>
@@ -48080,13 +48019,13 @@
         <v>21</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
@@ -48098,13 +48037,13 @@
         <v>119</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BS196" s="3">
         <v>36111</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -48113,7 +48052,7 @@
         <v>0</v>
       </c>
       <c r="BZ196" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="CA196" s="1" t="s">
         <v>124</v>
@@ -48122,16 +48061,16 @@
         <v>112</v>
       </c>
       <c r="CC196" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="CD196" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="CE196" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CG196" s="1" t="s">
         <v>2748</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2749</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>130</v>
@@ -48172,19 +48111,19 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P197" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="Q197" s="3">
         <v>27571</v>
@@ -48262,13 +48201,13 @@
         <v>21</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>2004</v>
@@ -48283,13 +48222,13 @@
         <v>119</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BS197" s="3">
         <v>37785</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -48307,16 +48246,16 @@
         <v>112</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="CD197" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="CD197" s="1" t="s">
+      <c r="CE197" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>2011</v>
@@ -48333,10 +48272,10 @@
         <v>88</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>154</v>
@@ -48351,16 +48290,16 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -48438,7 +48377,7 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -48453,7 +48392,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>124</v>
@@ -48462,7 +48401,7 @@
         <v>112</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="CG198" s="1" t="s">
         <v>130</v>
@@ -48506,19 +48445,19 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2768</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2769</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P199" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="Q199" s="3">
         <v>30993</v>
@@ -48593,7 +48532,7 @@
         <v>112</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="BB199" s="1">
         <v>3</v>
@@ -48602,13 +48541,13 @@
         <v>21</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>118</v>
@@ -48617,7 +48556,7 @@
         <v>106</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48635,16 +48574,16 @@
         <v>112</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>130</v>
@@ -48685,19 +48624,19 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2781</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P200" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="Q200" s="3">
         <v>30065</v>
@@ -48772,7 +48711,7 @@
         <v>112</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BB200" s="1">
         <v>3</v>
@@ -48781,13 +48720,13 @@
         <v>21</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>1201</v>
@@ -48799,7 +48738,7 @@
         <v>106</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48817,16 +48756,16 @@
         <v>112</v>
       </c>
       <c r="CC200" s="1" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="CD200" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CG200" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2788</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>1207</v>
@@ -48867,19 +48806,19 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P201" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="Q201" s="3">
         <v>30033</v>
@@ -48954,7 +48893,7 @@
         <v>112</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BB201" s="1">
         <v>3</v>
@@ -48963,7 +48902,7 @@
         <v>21</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
@@ -48978,7 +48917,7 @@
         <v>106</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48999,10 +48938,10 @@
         <v>1190</v>
       </c>
       <c r="CD201" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="CE201" s="1" t="s">
         <v>2796</v>
-      </c>
-      <c r="CE201" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="CG201" s="1" t="s">
         <v>1103</v>
@@ -49046,19 +48985,19 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2799</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P202" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="Q202" s="3">
         <v>29411</v>
@@ -49133,7 +49072,7 @@
         <v>112</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="BB202" s="1">
         <v>3</v>
@@ -49142,13 +49081,13 @@
         <v>21</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1201</v>
@@ -49166,13 +49105,13 @@
         <v>168</v>
       </c>
       <c r="BR202" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BS202" s="3">
         <v>37513</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -49190,16 +49129,16 @@
         <v>112</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2807</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1207</v>
@@ -49240,19 +49179,19 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2809</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P203" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="Q203" s="3">
         <v>32173</v>
@@ -49330,16 +49269,16 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2814</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2815</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2816</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -49351,13 +49290,13 @@
         <v>102</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BS203" s="3">
         <v>41024</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -49375,19 +49314,19 @@
         <v>112</v>
       </c>
       <c r="CC203" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CD203" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="CD203" s="1" t="s">
+      <c r="CE203" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2822</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2823</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>130</v>
@@ -49425,10 +49364,10 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2825</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -49458,7 +49397,7 @@
         <v>107</v>
       </c>
       <c r="AG204" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="AH204" s="1" t="s">
         <v>2039</v>
@@ -49503,7 +49442,7 @@
         <v>112</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BB204" s="1">
         <v>2</v>
@@ -49512,7 +49451,7 @@
         <v>21</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -49539,7 +49478,7 @@
         <v>112</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="CG204" s="1" t="s">
         <v>1952</v>
@@ -49583,19 +49522,19 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2829</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P205" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="Q205" s="3">
         <v>30408</v>
@@ -49667,7 +49606,7 @@
         <v>112</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="BB205" s="1">
         <v>3</v>
@@ -49676,13 +49615,13 @@
         <v>21</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1111</v>
@@ -49697,13 +49636,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="BS205" s="3">
         <v>37336</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49721,16 +49660,16 @@
         <v>112</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2839</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2840</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1117</v>
@@ -49771,19 +49710,19 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2842</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2843</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P206" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="Q206" s="3">
         <v>28132</v>
@@ -49858,7 +49797,7 @@
         <v>112</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="BB206" s="1">
         <v>3</v>
@@ -49867,13 +49806,13 @@
         <v>21</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>792</v>
@@ -49885,7 +49824,7 @@
         <v>106</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49903,16 +49842,16 @@
         <v>112</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2851</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2852</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>798</v>
@@ -49953,19 +49892,19 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2854</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2855</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P207" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="Q207" s="3">
         <v>31743</v>
@@ -50049,7 +49988,7 @@
         <v>21</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
@@ -50064,7 +50003,7 @@
         <v>106</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -50082,13 +50021,13 @@
         <v>112</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2860</v>
-      </c>
-      <c r="CE207" s="1" t="s">
-        <v>2861</v>
       </c>
       <c r="CG207" s="1" t="s">
         <v>1002</v>
@@ -50132,19 +50071,19 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2863</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2864</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P208" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="Q208" s="3">
         <v>23750</v>
@@ -50173,12 +50112,7 @@
       <c r="AA208" s="1">
         <v>0</v>
       </c>
-      <c r="AC208" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD208" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC208" s="3"/>
       <c r="AF208" s="1" t="s">
         <v>107</v>
       </c>
@@ -50228,7 +50162,7 @@
         <v>112</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="BB208" s="1">
         <v>3</v>
@@ -50237,16 +50171,16 @@
         <v>21</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="BI208" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -50255,7 +50189,7 @@
         <v>106</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -50267,7 +50201,7 @@
         <v>111</v>
       </c>
       <c r="BZ208" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="CA208" s="1" t="s">
         <v>124</v>
@@ -50279,16 +50213,16 @@
         <v>1243</v>
       </c>
       <c r="CD208" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="CE208" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="CG208" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2874</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2875</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -50326,10 +50260,10 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>111</v>
@@ -50356,7 +50290,7 @@
         <v>107</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>396</v>
@@ -50410,10 +50344,10 @@
         <v>112</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE209" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="210" spans="1:87" x14ac:dyDescent="0.25">
@@ -50424,13 +50358,13 @@
         <v>88</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>2546</v>
-      </c>
       <c r="E210" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>112</v>
@@ -50442,16 +50376,16 @@
         <v>94</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>111</v>
@@ -50478,7 +50412,7 @@
         <v>107</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>396</v>
@@ -50523,7 +50457,7 @@
         <v>0</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>124</v>
@@ -50532,10 +50466,10 @@
         <v>112</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -50570,10 +50504,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>111</v>
@@ -50600,7 +50534,7 @@
         <v>107</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>396</v>
@@ -50654,10 +50588,10 @@
         <v>112</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -50674,7 +50608,7 @@
         <v>131</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>92</v>
@@ -50686,16 +50620,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>111</v>
@@ -50767,7 +50701,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>124</v>
@@ -50776,10 +50710,10 @@
         <v>112</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -50814,10 +50748,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>111</v>
@@ -50898,10 +50832,10 @@
         <v>112</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -50918,7 +50852,7 @@
         <v>131</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -50930,16 +50864,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>111</v>
@@ -51011,7 +50945,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>124</v>
@@ -51020,10 +50954,10 @@
         <v>112</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -51058,10 +50992,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>111</v>
@@ -51142,10 +51076,10 @@
         <v>112</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -51180,19 +51114,19 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P216" s="1" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="Q216" s="3">
         <v>26043</v>
@@ -51218,12 +51152,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>107</v>
       </c>
@@ -51276,13 +51205,13 @@
         <v>21</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>400</v>
@@ -51297,13 +51226,13 @@
         <v>102</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BS216" s="3">
         <v>36306</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51321,16 +51250,16 @@
         <v>112</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="CD216" s="1" t="s">
+        <v>2906</v>
+      </c>
+      <c r="CE216" s="1" t="s">
         <v>2907</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2908</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2910</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>408</v>
@@ -51371,19 +51300,19 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2911</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P217" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="Q217" s="3">
         <v>29945</v>
@@ -51409,12 +51338,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>107</v>
       </c>
@@ -51470,13 +51394,13 @@
         <v>21</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -51485,7 +51409,7 @@
         <v>106</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51503,16 +51427,16 @@
         <v>112</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="CD217" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="CG217" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>130</v>
@@ -51553,19 +51477,19 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P218" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="Q218" s="3">
         <v>29034</v>
@@ -51594,12 +51518,7 @@
       <c r="AB218" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>107</v>
       </c>
@@ -51652,13 +51571,13 @@
         <v>21</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>400</v>
@@ -51673,13 +51592,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="BS218" s="3">
         <v>38234</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51697,16 +51616,16 @@
         <v>112</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>408</v>
@@ -51747,19 +51666,19 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2932</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2934</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P219" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="Q219" s="3">
         <v>29062</v>
@@ -51785,12 +51704,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>107</v>
       </c>
@@ -51846,13 +51760,13 @@
         <v>21</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1111</v>
@@ -51864,7 +51778,7 @@
         <v>106</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51882,16 +51796,16 @@
         <v>112</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="CD219" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="CE219" s="1" t="s">
         <v>2939</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2940</v>
-      </c>
-      <c r="CE219" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2942</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1117</v>
@@ -51932,19 +51846,19 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2943</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2945</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P220" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="Q220" s="3">
         <v>29181</v>
@@ -51970,12 +51884,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>107</v>
       </c>
@@ -52028,13 +51937,13 @@
         <v>21</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>832</v>
@@ -52049,13 +51958,13 @@
         <v>238</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="BS220" s="3">
         <v>37069</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -52076,13 +51985,13 @@
         <v>809</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2950</v>
+      </c>
+      <c r="CG220" s="1" t="s">
         <v>2951</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2953</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>838</v>
@@ -52123,19 +52032,19 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2953</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2954</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2956</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P221" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="Q221" s="3">
         <v>30033</v>
@@ -52161,12 +52070,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>107</v>
       </c>
@@ -52222,13 +52126,13 @@
         <v>21</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>1111</v>
@@ -52240,7 +52144,7 @@
         <v>106</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52258,16 +52162,16 @@
         <v>112</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2964</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1117</v>
@@ -52308,19 +52212,19 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2965</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2966</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P222" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="Q222" s="3">
         <v>26843</v>
@@ -52346,12 +52250,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2969</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>107</v>
       </c>
@@ -52398,7 +52297,7 @@
         <v>112</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="BB222" s="1">
         <v>3</v>
@@ -52407,16 +52306,16 @@
         <v>21</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>118</v>
@@ -52428,13 +52327,13 @@
         <v>238</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BS222" s="3">
         <v>35125</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52452,19 +52351,19 @@
         <v>112</v>
       </c>
       <c r="CC222" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CD222" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="CG222" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CH222" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>130</v>
@@ -52502,19 +52401,19 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P223" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="Q223" s="3">
         <v>25903</v>
@@ -52598,19 +52497,19 @@
         <v>21</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52628,16 +52527,16 @@
         <v>112</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="CE223" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2987</v>
-      </c>
-      <c r="CD223" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2990</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>130</v>
@@ -52678,19 +52577,19 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P224" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="Q224" s="3">
         <v>28577</v>
@@ -52771,13 +52670,13 @@
         <v>21</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52786,7 +52685,7 @@
         <v>106</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52807,13 +52706,13 @@
         <v>351</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>130</v>
@@ -52854,19 +52753,19 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P225" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="Q225" s="3">
         <v>23039</v>
@@ -52947,13 +52846,13 @@
         <v>21</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>203</v>
@@ -52968,13 +52867,13 @@
         <v>238</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BS225" s="3">
         <v>34307</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52992,16 +52891,16 @@
         <v>112</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>444</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="CG225" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>210</v>
@@ -53045,10 +52944,10 @@
         <v>264</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>266</v>
@@ -53081,7 +52980,7 @@
         <v>42582</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>107</v>
@@ -53138,13 +53037,13 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BI226" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -53189,7 +53088,7 @@
         <v>278</v>
       </c>
       <c r="CG226" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>843</v>
@@ -53212,7 +53111,7 @@
         <v>90</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>92</v>
@@ -53224,22 +53123,22 @@
         <v>94</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="Q227" s="3">
         <v>17060</v>
@@ -53275,13 +53174,13 @@
         <v>42628</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>140</v>
@@ -53326,22 +53225,22 @@
         <v>112</v>
       </c>
       <c r="AZ227" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="BB227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC227" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD227" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="BH227" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="BI227" s="1" t="s">
         <v>3026</v>
-      </c>
-      <c r="BB227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC227" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD227" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="BH227" s="1" t="s">
-        <v>3028</v>
-      </c>
-      <c r="BI227" s="1" t="s">
-        <v>3029</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>118</v>
@@ -53350,7 +53249,7 @@
         <v>106</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -53359,7 +53258,7 @@
         <v>0</v>
       </c>
       <c r="BZ227" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CA227" s="1" t="s">
         <v>124</v>
@@ -53374,13 +53273,13 @@
         <v>126</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -53394,13 +53293,13 @@
         <v>88</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>112</v>
@@ -53412,22 +53311,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="Q228" s="3">
         <v>26864</v>
@@ -53460,7 +53359,7 @@
         <v>42735</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>107</v>
@@ -53514,10 +53413,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53529,13 +53428,13 @@
         <v>238</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="BS228" s="3">
         <v>102</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53547,7 +53446,7 @@
         <v>111</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>124</v>
@@ -53556,16 +53455,16 @@
         <v>112</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="CD228" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="CE228" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="CG228" s="1" t="s">
         <v>3045</v>
-      </c>
-      <c r="CD228" s="1" t="s">
-        <v>3046</v>
-      </c>
-      <c r="CE228" s="1" t="s">
-        <v>3047</v>
-      </c>
-      <c r="CG228" s="1" t="s">
-        <v>3048</v>
       </c>
       <c r="CH228" s="1" t="s">
         <v>130</v>
@@ -53606,16 +53505,16 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="Q229" s="3">
         <v>25379</v>
@@ -53648,7 +53547,7 @@
         <v>39800</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>251</v>
@@ -53702,10 +53601,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53717,13 +53616,13 @@
         <v>1745</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BS229" s="3">
         <v>35915</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53753,10 +53652,10 @@
         <v>457</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>130</v>
@@ -53779,7 +53678,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>112</v>
@@ -53791,22 +53690,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="Q230" s="3">
         <v>17470</v>
@@ -53836,7 +53735,7 @@
         <v>43100</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>107</v>
@@ -53893,10 +53792,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53905,7 +53804,7 @@
         <v>106</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53929,16 +53828,16 @@
         <v>112</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53961,7 +53860,7 @@
         <v>131</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>112</v>
@@ -53973,22 +53872,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="Q231" s="3">
         <v>23356</v>
@@ -54018,7 +53917,7 @@
         <v>43105</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>107</v>
@@ -54072,10 +53971,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>118</v>
@@ -54087,13 +53986,13 @@
         <v>102</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BS231" s="3">
         <v>34412</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>122</v>
@@ -54102,7 +54001,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>124</v>
@@ -54111,16 +54010,16 @@
         <v>112</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CD231" s="1" t="s">
         <v>2428</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -54137,13 +54036,13 @@
         <v>88</v>
       </c>
       <c r="C232" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>2546</v>
-      </c>
       <c r="E232" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>92</v>
@@ -54155,22 +54054,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="Q232" s="3">
         <v>17726</v>
@@ -54206,7 +54105,7 @@
         <v>43312</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>251</v>
@@ -54257,7 +54156,7 @@
         <v>112</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BB232" s="1">
         <v>0</v>
@@ -54266,10 +54165,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -54278,7 +54177,7 @@
         <v>106</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -54287,7 +54186,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>124</v>
@@ -54296,16 +54195,16 @@
         <v>112</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>958</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>130</v>
@@ -54328,7 +54227,7 @@
         <v>131</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -54340,22 +54239,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="Q233" s="3">
         <v>17041</v>
@@ -54385,7 +54284,7 @@
         <v>42735</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>107</v>
@@ -54442,7 +54341,7 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>118</v>
@@ -54451,7 +54350,7 @@
         <v>106</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>122</v>
@@ -54463,7 +54362,7 @@
         <v>111</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -54472,13 +54371,13 @@
         <v>112</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CG233" s="1" t="s">
         <v>130</v>
@@ -54498,13 +54397,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2546</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>112</v>
@@ -54516,22 +54415,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="Q234" s="3">
         <v>30147</v>
@@ -54557,17 +54456,12 @@
       <c r="AA234" s="1">
         <v>0</v>
       </c>
-      <c r="AC234" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD234" s="1" t="s">
-        <v>2866</v>
-      </c>
+      <c r="AC234" s="3"/>
       <c r="AF234" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>396</v>
@@ -54615,10 +54509,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>118</v>
@@ -54630,13 +54524,13 @@
         <v>102</v>
       </c>
       <c r="BR234" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BS234" s="3">
         <v>37124</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>122</v>
@@ -54645,7 +54539,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>124</v>
@@ -54654,16 +54548,16 @@
         <v>112</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CD234" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>130</v>
@@ -54704,16 +54598,16 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="Q235" s="3">
         <v>17821</v>
@@ -54752,13 +54646,13 @@
         <v>43388</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>1319</v>
@@ -54803,25 +54697,25 @@
         <v>112</v>
       </c>
       <c r="AZ235" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="BB235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC235" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD235" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="BE235" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="BF235" s="1" t="s">
         <v>3116</v>
       </c>
-      <c r="BB235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC235" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD235" s="1" t="s">
+      <c r="BH235" s="1" t="s">
         <v>3117</v>
-      </c>
-      <c r="BE235" s="1" t="s">
-        <v>3118</v>
-      </c>
-      <c r="BF235" s="1" t="s">
-        <v>3119</v>
-      </c>
-      <c r="BH235" s="1" t="s">
-        <v>3120</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>118</v>
@@ -54830,7 +54724,7 @@
         <v>106</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>122</v>
@@ -54848,16 +54742,16 @@
         <v>112</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="CD235" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="CE235" s="1" t="s">
         <v>531</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>130</v>
@@ -54898,16 +54792,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>100</v>
@@ -54943,7 +54837,7 @@
         <v>43980</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>107</v>
@@ -55000,7 +54894,7 @@
         <v>1951</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>118</v>
@@ -55012,13 +54906,13 @@
         <v>1745</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BS236" s="3">
         <v>35915</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>122</v>
@@ -55042,7 +54936,7 @@
         <v>457</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CG236" s="1" t="s">
         <v>1952</v>
@@ -55062,10 +54956,10 @@
         <v>88</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>2545</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>2546</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>154</v>
@@ -55080,22 +54974,22 @@
         <v>94</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -55131,7 +55025,7 @@
         <v>44135</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>107</v>
@@ -55188,10 +55082,10 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>118</v>
@@ -55200,7 +55094,7 @@
         <v>106</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -55209,7 +55103,7 @@
         <v>0</v>
       </c>
       <c r="BZ237" s="1" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="CA237" s="1" t="s">
         <v>124</v>
@@ -55221,10 +55115,10 @@
         <v>1343</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CG237" s="1" t="s">
         <v>1952</v>
@@ -55241,10 +55135,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1317</v>
@@ -55259,7 +55153,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1317</v>
@@ -55268,19 +55162,19 @@
         <v>154</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P238" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="Q238" s="3">
         <v>20466</v>
@@ -55328,7 +55222,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -55361,19 +55255,19 @@
         <v>21</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -55391,16 +55285,16 @@
         <v>112</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>322</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -55414,10 +55308,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1317</v>
@@ -55432,7 +55326,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1317</v>
@@ -55441,19 +55335,19 @@
         <v>154</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P239" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="Q239" s="3">
         <v>24006</v>
@@ -55498,7 +55392,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -55534,19 +55428,19 @@
         <v>21</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -55573,10 +55467,10 @@
         <v>1139</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>130</v>
@@ -55590,10 +55484,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1317</v>
@@ -55608,7 +55502,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1317</v>
@@ -55617,19 +55511,19 @@
         <v>154</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P240" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="Q240" s="3">
         <v>26193</v>
@@ -55674,7 +55568,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55710,19 +55604,19 @@
         <v>21</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -55743,16 +55637,16 @@
         <v>112</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>3168</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>3169</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>3170</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>3171</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>130</v>
@@ -55766,10 +55660,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1317</v>
@@ -55784,7 +55678,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1317</v>
@@ -55793,19 +55687,19 @@
         <v>154</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P241" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="Q241" s="3">
         <v>24325</v>
@@ -55886,19 +55780,19 @@
         <v>21</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55919,7 +55813,7 @@
         <v>112</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>631</v>
@@ -55928,7 +55822,7 @@
         <v>531</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55942,10 +55836,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1317</v>
@@ -55960,7 +55854,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1317</v>
@@ -55969,19 +55863,19 @@
         <v>154</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P242" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="Q242" s="3">
         <v>24848</v>
@@ -56029,7 +55923,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -56065,19 +55959,19 @@
         <v>21</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -56101,13 +55995,13 @@
         <v>514</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>130</v>
@@ -56121,10 +56015,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1317</v>
@@ -56139,7 +56033,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1317</v>
@@ -56148,19 +56042,19 @@
         <v>154</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P243" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="Q243" s="3">
         <v>27702</v>
@@ -56241,19 +56135,19 @@
         <v>21</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -56274,16 +56168,16 @@
         <v>112</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>646</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>130</v>
@@ -56297,10 +56191,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1317</v>
@@ -56315,7 +56209,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1317</v>
@@ -56324,19 +56218,19 @@
         <v>154</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P244" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="Q244" s="3">
         <v>23289</v>
@@ -56366,7 +56260,7 @@
         <v>107</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1319</v>
@@ -56384,7 +56278,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -56420,19 +56314,19 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -56453,16 +56347,16 @@
         <v>112</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1065</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -56476,10 +56370,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1317</v>
@@ -56494,7 +56388,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1317</v>
@@ -56503,19 +56397,19 @@
         <v>154</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P245" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="Q245" s="3">
         <v>16546</v>
@@ -56563,7 +56457,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -56599,19 +56493,19 @@
         <v>21</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -56635,13 +56529,13 @@
         <v>1050</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -56655,10 +56549,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1317</v>
@@ -56673,7 +56567,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1317</v>
@@ -56682,19 +56576,19 @@
         <v>154</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="Q246" s="3">
         <v>12691</v>
@@ -56742,7 +56636,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -56778,19 +56672,19 @@
         <v>21</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56817,10 +56711,10 @@
         <v>2256</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>130</v>
@@ -56834,10 +56728,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1317</v>
@@ -56852,7 +56746,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1317</v>
@@ -56861,19 +56755,19 @@
         <v>154</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2366</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="Q247" s="3">
         <v>23611</v>
@@ -56903,7 +56797,7 @@
         <v>107</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1319</v>
@@ -56918,7 +56812,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56951,19 +56845,19 @@
         <v>21</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56981,16 +56875,16 @@
         <v>112</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3243</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>130</v>
@@ -57004,10 +56898,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1317</v>
@@ -57022,7 +56916,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1317</v>
@@ -57031,13 +56925,13 @@
         <v>154</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2375</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -57121,19 +57015,19 @@
         <v>21</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -57154,16 +57048,16 @@
         <v>2300</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3249</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3252</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -57177,10 +57071,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1317</v>
@@ -57195,7 +57089,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1317</v>
@@ -57204,19 +57098,19 @@
         <v>154</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P249" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="Q249" s="3">
         <v>18056</v>
@@ -57294,19 +57188,19 @@
         <v>21</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -57327,13 +57221,13 @@
         <v>1258</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -57347,10 +57241,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1317</v>
@@ -57365,7 +57259,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1317</v>
@@ -57374,19 +57268,19 @@
         <v>154</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P250" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="Q250" s="3">
         <v>26349</v>
@@ -57431,7 +57325,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -57467,19 +57361,19 @@
         <v>21</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -57500,16 +57394,16 @@
         <v>112</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>130</v>
@@ -57523,10 +57417,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1317</v>
@@ -57541,7 +57435,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1317</v>
@@ -57550,19 +57444,19 @@
         <v>154</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P251" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="Q251" s="3">
         <v>30589</v>
@@ -57610,7 +57504,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -57646,19 +57540,19 @@
         <v>21</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -57679,16 +57573,16 @@
         <v>112</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3280</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3281</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3282</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3283</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3284</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -57702,10 +57596,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1317</v>
@@ -57720,7 +57614,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1317</v>
@@ -57729,19 +57623,19 @@
         <v>154</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P252" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="Q252" s="3">
         <v>27354</v>
@@ -57789,7 +57683,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57825,19 +57719,19 @@
         <v>21</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57858,16 +57752,16 @@
         <v>112</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3292</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3293</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3295</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57881,10 +57775,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1317</v>
@@ -57899,7 +57793,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1317</v>
@@ -57908,19 +57802,19 @@
         <v>154</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P253" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="Q253" s="3">
         <v>13756</v>
@@ -58007,7 +57901,7 @@
         <v>21</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
@@ -58034,10 +57928,10 @@
         <v>112</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>225</v>
@@ -58057,10 +57951,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1317</v>
@@ -58075,7 +57969,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1317</v>
@@ -58084,19 +57978,19 @@
         <v>154</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P254" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="Q254" s="3">
         <v>26074</v>
@@ -58144,7 +58038,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -58180,25 +58074,25 @@
         <v>21</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -58216,16 +58110,16 @@
         <v>112</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1326</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -58239,10 +58133,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1317</v>
@@ -58257,7 +58151,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1317</v>
@@ -58266,19 +58160,19 @@
         <v>154</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P255" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="Q255" s="3">
         <v>28808</v>
@@ -58323,7 +58217,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -58359,19 +58253,19 @@
         <v>21</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -58392,16 +58286,16 @@
         <v>112</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -58415,10 +58309,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1317</v>
@@ -58433,7 +58327,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1317</v>
@@ -58442,19 +58336,19 @@
         <v>154</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P256" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>138</v>
@@ -58478,7 +58372,7 @@
         <v>107</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>396</v>
@@ -58493,7 +58387,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -58523,19 +58417,19 @@
         <v>21</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -58553,16 +58447,16 @@
         <v>112</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>322</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -58576,10 +58470,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1317</v>
@@ -58594,7 +58488,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1317</v>
@@ -58603,19 +58497,19 @@
         <v>154</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P257" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="R257" s="1" t="s">
         <v>138</v>
@@ -58693,19 +58587,19 @@
         <v>21</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -58723,16 +58617,16 @@
         <v>112</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3340</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3341</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3343</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>130</v>
@@ -58746,10 +58640,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1317</v>
@@ -58764,7 +58658,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1317</v>
@@ -58773,19 +58667,19 @@
         <v>154</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P258" s="1" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="Q258" s="3">
         <v>29466</v>
@@ -58866,19 +58760,19 @@
         <v>21</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58896,16 +58790,16 @@
         <v>112</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3351</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3352</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3353</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3354</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58919,10 +58813,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1317</v>
@@ -58937,7 +58831,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1317</v>
@@ -58946,22 +58840,22 @@
         <v>154</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P259" s="1" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="Q259" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>138</v>
@@ -59003,7 +58897,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -59036,19 +58930,19 @@
         <v>21</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -59066,16 +58960,16 @@
         <v>112</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3363</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3366</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -59116,19 +59010,19 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P260" s="1" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="Q260" s="3">
         <v>31561</v>
@@ -59212,13 +59106,13 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="BG260" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -59227,7 +59121,7 @@
         <v>106</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -59257,10 +59151,10 @@
         <v>1309</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -59301,22 +59195,22 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P261" s="1" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="Q261" s="3">
         <v>32847</v>
@@ -59400,13 +59294,13 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -59418,13 +59312,13 @@
         <v>168</v>
       </c>
       <c r="BR261" s="1" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="BS261" s="3">
         <v>5347</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -59448,16 +59342,16 @@
         <v>112</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="CD261" s="1" t="s">
         <v>484</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -59498,19 +59392,19 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P262" s="1" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="Q262" s="3">
         <v>29297</v>
@@ -59591,7 +59485,7 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
@@ -59603,13 +59497,13 @@
         <v>238</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="BS262" s="3">
         <v>5480</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -59636,10 +59530,10 @@
         <v>500</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="CG262" s="1" t="s">
         <v>130</v>
@@ -59683,19 +59577,19 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P263" s="1" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="Q263" s="3">
         <v>27288</v>
@@ -59728,10 +59622,10 @@
         <v>107</v>
       </c>
       <c r="AG263" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="AH263" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="AJ263" s="1" t="s">
         <v>110</v>
@@ -59779,13 +59673,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="BG263" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -59794,13 +59688,13 @@
         <v>238</v>
       </c>
       <c r="BR263" s="1" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="BS263" s="3">
         <v>2302</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59824,16 +59718,16 @@
         <v>92</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3403</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3405</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3406</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3407</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3408</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59853,7 +59747,7 @@
         <v>152</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>154</v>
@@ -59874,19 +59768,19 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P264" s="1" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="Q264" s="3">
         <v>21029</v>
@@ -59919,10 +59813,10 @@
         <v>107</v>
       </c>
       <c r="AG264" s="1" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="AH264" s="1" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="AI264" s="1" t="s">
         <v>112</v>
@@ -59973,19 +59867,19 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="BG264" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -60000,7 +59894,7 @@
         <v>111</v>
       </c>
       <c r="BZ264" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="CA264" s="1" t="s">
         <v>124</v>
@@ -60009,16 +59903,16 @@
         <v>92</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -60059,16 +59953,16 @@
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -60104,13 +59998,13 @@
         <v>43847</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AG265" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="AH265" s="1" t="s">
         <v>2039</v>
@@ -60155,7 +60049,7 @@
         <v>112</v>
       </c>
       <c r="AZ265" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BB265" s="1">
         <v>2</v>
@@ -60164,10 +60058,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -60179,13 +60073,13 @@
         <v>119</v>
       </c>
       <c r="BR265" s="1" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="BS265" s="3">
         <v>34808</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -60203,13 +60097,13 @@
         <v>112</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="CG265" s="1" t="s">
         <v>1952</v>
@@ -60226,10 +60120,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1317</v>
@@ -60253,16 +60147,16 @@
         <v>154</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -60322,7 +60216,7 @@
         <v>0</v>
       </c>
       <c r="AN266" s="1" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="AO266" s="1">
         <v>0</v>
@@ -60352,7 +60246,7 @@
         <v>112</v>
       </c>
       <c r="AZ266" s="1" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="BB266" s="1">
         <v>2</v>
@@ -60361,7 +60255,7 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="BG266" s="1" t="s">
         <v>115</v>
@@ -60370,7 +60264,7 @@
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -60388,13 +60282,13 @@
         <v>112</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="CG266" s="1" t="s">
         <v>130</v>
@@ -60438,16 +60332,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -60486,7 +60380,7 @@
         <v>44246</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>107</v>
@@ -60543,10 +60437,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -60555,7 +60449,7 @@
         <v>106</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -60579,13 +60473,13 @@
         <v>112</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>147</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="CG267" s="1" t="s">
         <v>130</v>
@@ -60598,6 +60492,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI267" xr:uid="{853B7B1A-5F53-4FF1-8B17-3F1DEC2CC8C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>